--- a/File báo cáo/Phạm Bá Hùng/CV tháng 11_2020_Tú - Copy.xlsx
+++ b/File báo cáo/Phạm Bá Hùng/CV tháng 11_2020_Tú - Copy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\DoAn\branches\dev\File báo cáo\Phạm Bá Hùng\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="400">
   <si>
     <t>Email</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Nam</t>
   </si>
   <si>
-    <t>787 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
-  </si>
-  <si>
     <t>tranthai2258@gmail.com</t>
   </si>
   <si>
@@ -110,51 +107,27 @@
     <t>Đang làm</t>
   </si>
   <si>
-    <t>788 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
-  </si>
-  <si>
     <t>24613452</t>
   </si>
   <si>
-    <t>789 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
-  </si>
-  <si>
     <t>24613453</t>
   </si>
   <si>
-    <t>790 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
-  </si>
-  <si>
     <t>24613454</t>
   </si>
   <si>
-    <t>791 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
-  </si>
-  <si>
     <t>24613455</t>
   </si>
   <si>
-    <t>792 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
-  </si>
-  <si>
     <t>24613456</t>
   </si>
   <si>
-    <t>793 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
-  </si>
-  <si>
     <t>24613457</t>
   </si>
   <si>
-    <t>794 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
-  </si>
-  <si>
     <t>24613458</t>
   </si>
   <si>
-    <t>795 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
-  </si>
-  <si>
     <t>24613459</t>
   </si>
   <si>
@@ -1182,6 +1155,75 @@
   </si>
   <si>
     <t>24613630</t>
+  </si>
+  <si>
+    <t>787/1 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>788/2 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>789/3 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>790/4 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>791/5 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>792/6 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>793/7 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>794/8 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>795/9 Lũy Bán Bích, Hoà Thanh, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>Nguyễn Gia Linh</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thanh</t>
+  </si>
+  <si>
+    <t>tranthai2253@gmail.com</t>
+  </si>
+  <si>
+    <t>tranthai2254@gmail.com</t>
+  </si>
+  <si>
+    <t>tranthai2255@gmail.com</t>
+  </si>
+  <si>
+    <t>tranthai2256@gmail.com</t>
+  </si>
+  <si>
+    <t>tranthai2257@gmail.com</t>
+  </si>
+  <si>
+    <t>tranthai2259@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyen2258@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyen2250@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyen2251@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyen2252@gmail.com</t>
+  </si>
+  <si>
+    <t>TP HCM</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
   </si>
 </sst>
 </file>
@@ -1252,8 +1294,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1533,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1556,16 +1598,16 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1577,34 +1619,34 @@
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1618,25 +1660,25 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>377</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>395</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="6">
-        <v>42299</v>
+        <v>42278</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>4</v>
+        <v>398</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>5</v>
@@ -1648,21 +1690,21 @@
         <v>1</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2">
-        <v>13216545978</v>
+        <v>13216545001</v>
       </c>
       <c r="P2" s="2">
-        <v>32165468468</v>
+        <v>32165468001</v>
       </c>
       <c r="Q2" s="2">
-        <v>25412668</v>
+        <v>25412001</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>386</v>
       </c>
       <c r="B3" s="6">
         <v>42300</v>
@@ -1671,25 +1713,25 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>378</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>396</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="6">
-        <v>42300</v>
+        <v>42279</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>4</v>
+        <v>398</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>5</v>
@@ -1698,24 +1740,24 @@
         <v>6</v>
       </c>
       <c r="M3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" s="2">
-        <v>13216545978</v>
+        <v>13216545002</v>
       </c>
       <c r="P3" s="2">
-        <v>32165468468</v>
+        <v>32165468002</v>
       </c>
       <c r="Q3" s="2">
-        <v>25412668</v>
+        <v>25412002</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>387</v>
       </c>
       <c r="B4" s="6">
         <v>42301</v>
@@ -1724,25 +1766,25 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>379</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>397</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H4" s="6">
-        <v>42301</v>
+        <v>42280</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>4</v>
+        <v>399</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>5</v>
@@ -1751,19 +1793,19 @@
         <v>6</v>
       </c>
       <c r="M4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O4" s="2">
-        <v>13216545978</v>
+        <v>13216545003</v>
       </c>
       <c r="P4" s="2">
-        <v>32165468468</v>
+        <v>32165468003</v>
       </c>
       <c r="Q4" s="2">
-        <v>25412668</v>
+        <v>25412003</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1777,25 +1819,25 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>380</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>388</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H5" s="6">
-        <v>42302</v>
+        <v>42281</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>5</v>
@@ -1804,19 +1846,19 @@
         <v>6</v>
       </c>
       <c r="M5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O5" s="2">
-        <v>13216545978</v>
+        <v>13216545004</v>
       </c>
       <c r="P5" s="2">
-        <v>32165468468</v>
+        <v>32165468004</v>
       </c>
       <c r="Q5" s="2">
-        <v>25412668</v>
+        <v>25412004</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,25 +1872,25 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>381</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>389</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H6" s="6">
-        <v>42303</v>
+        <v>42282</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>5</v>
@@ -1857,19 +1899,19 @@
         <v>6</v>
       </c>
       <c r="M6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O6" s="2">
-        <v>13216545978</v>
+        <v>13216545005</v>
       </c>
       <c r="P6" s="2">
-        <v>32165468468</v>
+        <v>32165468005</v>
       </c>
       <c r="Q6" s="2">
-        <v>25412668</v>
+        <v>25412005</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,25 +1925,25 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>382</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H7" s="6">
-        <v>42304</v>
+        <v>42283</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>5</v>
@@ -1910,19 +1952,19 @@
         <v>6</v>
       </c>
       <c r="M7" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O7" s="2">
-        <v>13216545978</v>
+        <v>13216545006</v>
       </c>
       <c r="P7" s="2">
-        <v>32165468468</v>
+        <v>32165468006</v>
       </c>
       <c r="Q7" s="2">
-        <v>25412668</v>
+        <v>25412006</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,25 +1978,25 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>383</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>391</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H8" s="6">
-        <v>42305</v>
+        <v>42284</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>5</v>
@@ -1963,19 +2005,19 @@
         <v>6</v>
       </c>
       <c r="M8" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O8" s="2">
-        <v>13216545978</v>
+        <v>13216545007</v>
       </c>
       <c r="P8" s="2">
-        <v>32165468468</v>
+        <v>32165468007</v>
       </c>
       <c r="Q8" s="2">
-        <v>25412668</v>
+        <v>25412007</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,25 +2031,25 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>384</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>392</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H9" s="6">
-        <v>42306</v>
+        <v>42285</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>5</v>
@@ -2016,19 +2058,19 @@
         <v>6</v>
       </c>
       <c r="M9" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O9" s="2">
-        <v>13216545978</v>
+        <v>13216545008</v>
       </c>
       <c r="P9" s="2">
-        <v>32165468468</v>
+        <v>32165468008</v>
       </c>
       <c r="Q9" s="2">
-        <v>25412668</v>
+        <v>25412008</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,25 +2084,25 @@
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>385</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H10" s="6">
-        <v>42307</v>
+        <v>42286</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>5</v>
@@ -2069,19 +2111,19 @@
         <v>6</v>
       </c>
       <c r="M10" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="2">
-        <v>13216545978</v>
+        <v>13216545009</v>
       </c>
       <c r="P10" s="2">
-        <v>32165468468</v>
+        <v>32165468009</v>
       </c>
       <c r="Q10" s="2">
-        <v>25412668</v>
+        <v>25412009</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,25 +2137,25 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>9</v>
+        <v>393</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H11" s="6">
-        <v>42308</v>
+        <v>42287</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>5</v>
@@ -2122,16 +2164,16 @@
         <v>6</v>
       </c>
       <c r="M11" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O11" s="2">
         <v>13216545978</v>
       </c>
       <c r="P11" s="2">
-        <v>32165468468</v>
+        <v>32165468010</v>
       </c>
       <c r="Q11" s="2">
         <v>25412668</v>
@@ -2148,16 +2190,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>9</v>
+        <v>394</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H12" s="6">
         <v>42309</v>
@@ -2166,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>5</v>
@@ -2175,10 +2217,10 @@
         <v>6</v>
       </c>
       <c r="M12" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O12" s="2">
         <v>13216545978</v>
@@ -2201,16 +2243,16 @@
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H13" s="6">
         <v>42310</v>
@@ -2219,7 +2261,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>5</v>
@@ -2228,10 +2270,10 @@
         <v>6</v>
       </c>
       <c r="M13" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O13" s="2">
         <v>13216545978</v>
@@ -2254,16 +2296,16 @@
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H14" s="6">
         <v>42311</v>
@@ -2272,7 +2314,7 @@
         <v>4</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>5</v>
@@ -2281,10 +2323,10 @@
         <v>6</v>
       </c>
       <c r="M14" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O14" s="2">
         <v>13216545978</v>
@@ -2307,16 +2349,16 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H15" s="6">
         <v>42312</v>
@@ -2325,7 +2367,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>5</v>
@@ -2334,10 +2376,10 @@
         <v>6</v>
       </c>
       <c r="M15" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O15" s="2">
         <v>13216545978</v>
@@ -2360,16 +2402,16 @@
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H16" s="6">
         <v>42313</v>
@@ -2378,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>5</v>
@@ -2387,10 +2429,10 @@
         <v>6</v>
       </c>
       <c r="M16" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O16" s="2">
         <v>13216545978</v>
@@ -2413,16 +2455,16 @@
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H17" s="6">
         <v>42314</v>
@@ -2431,7 +2473,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>5</v>
@@ -2440,10 +2482,10 @@
         <v>6</v>
       </c>
       <c r="M17" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O17" s="2">
         <v>13216545978</v>
@@ -2466,16 +2508,16 @@
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H18" s="6">
         <v>42315</v>
@@ -2484,7 +2526,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>5</v>
@@ -2493,10 +2535,10 @@
         <v>6</v>
       </c>
       <c r="M18" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O18" s="2">
         <v>13216545978</v>
@@ -2519,16 +2561,16 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H19" s="6">
         <v>42316</v>
@@ -2537,7 +2579,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>5</v>
@@ -2546,10 +2588,10 @@
         <v>6</v>
       </c>
       <c r="M19" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O19" s="2">
         <v>13216545978</v>
@@ -2572,16 +2614,16 @@
         <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H20" s="6">
         <v>42317</v>
@@ -2590,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>5</v>
@@ -2599,10 +2641,10 @@
         <v>6</v>
       </c>
       <c r="M20" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O20" s="2">
         <v>13216545978</v>
@@ -2625,16 +2667,16 @@
         <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H21" s="6">
         <v>42318</v>
@@ -2643,7 +2685,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>5</v>
@@ -2652,10 +2694,10 @@
         <v>6</v>
       </c>
       <c r="M21" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O21" s="2">
         <v>13216545978</v>
@@ -2678,16 +2720,16 @@
         <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H22" s="6">
         <v>42319</v>
@@ -2696,7 +2738,7 @@
         <v>4</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>5</v>
@@ -2705,10 +2747,10 @@
         <v>6</v>
       </c>
       <c r="M22" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O22" s="2">
         <v>13216545978</v>
@@ -2731,16 +2773,16 @@
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H23" s="6">
         <v>42320</v>
@@ -2749,7 +2791,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>5</v>
@@ -2758,10 +2800,10 @@
         <v>6</v>
       </c>
       <c r="M23" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O23" s="2">
         <v>13216545978</v>
@@ -2784,16 +2826,16 @@
         <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H24" s="6">
         <v>42321</v>
@@ -2802,7 +2844,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>5</v>
@@ -2811,10 +2853,10 @@
         <v>6</v>
       </c>
       <c r="M24" s="2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O24" s="2">
         <v>13216545978</v>
@@ -2837,16 +2879,16 @@
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H25" s="6">
         <v>42322</v>
@@ -2855,7 +2897,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>5</v>
@@ -2864,10 +2906,10 @@
         <v>6</v>
       </c>
       <c r="M25" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O25" s="2">
         <v>13216545978</v>
@@ -2890,16 +2932,16 @@
         <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H26" s="6">
         <v>42323</v>
@@ -2908,7 +2950,7 @@
         <v>4</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>5</v>
@@ -2917,10 +2959,10 @@
         <v>6</v>
       </c>
       <c r="M26" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O26" s="2">
         <v>13216545978</v>
@@ -2943,16 +2985,16 @@
         <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H27" s="6">
         <v>42324</v>
@@ -2961,7 +3003,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>5</v>
@@ -2970,10 +3012,10 @@
         <v>6</v>
       </c>
       <c r="M27" s="2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O27" s="2">
         <v>13216545978</v>
@@ -2996,16 +3038,16 @@
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H28" s="6">
         <v>42325</v>
@@ -3014,7 +3056,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>5</v>
@@ -3023,10 +3065,10 @@
         <v>6</v>
       </c>
       <c r="M28" s="2">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O28" s="2">
         <v>13216545978</v>
@@ -3049,16 +3091,16 @@
         <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H29" s="6">
         <v>42326</v>
@@ -3067,7 +3109,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>5</v>
@@ -3076,10 +3118,10 @@
         <v>6</v>
       </c>
       <c r="M29" s="2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O29" s="2">
         <v>13216545978</v>
@@ -3102,16 +3144,16 @@
         <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H30" s="6">
         <v>42327</v>
@@ -3120,7 +3162,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>5</v>
@@ -3129,10 +3171,10 @@
         <v>6</v>
       </c>
       <c r="M30" s="2">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O30" s="2">
         <v>13216545978</v>
@@ -3155,16 +3197,16 @@
         <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H31" s="6">
         <v>42328</v>
@@ -3173,7 +3215,7 @@
         <v>4</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>5</v>
@@ -3182,10 +3224,10 @@
         <v>6</v>
       </c>
       <c r="M31" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O31" s="2">
         <v>13216545978</v>
@@ -3208,16 +3250,16 @@
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H32" s="6">
         <v>42329</v>
@@ -3226,7 +3268,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>5</v>
@@ -3235,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="M32" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O32" s="2">
         <v>13216545978</v>
@@ -3261,16 +3303,16 @@
         <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H33" s="6">
         <v>42330</v>
@@ -3279,7 +3321,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>5</v>
@@ -3288,10 +3330,10 @@
         <v>6</v>
       </c>
       <c r="M33" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O33" s="2">
         <v>13216545978</v>
@@ -3314,16 +3356,16 @@
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H34" s="6">
         <v>42331</v>
@@ -3332,7 +3374,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>5</v>
@@ -3341,10 +3383,10 @@
         <v>6</v>
       </c>
       <c r="M34" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O34" s="2">
         <v>13216545978</v>
@@ -3367,16 +3409,16 @@
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H35" s="6">
         <v>42332</v>
@@ -3385,7 +3427,7 @@
         <v>4</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>5</v>
@@ -3394,10 +3436,10 @@
         <v>6</v>
       </c>
       <c r="M35" s="2">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O35" s="2">
         <v>13216545978</v>
@@ -3420,16 +3462,16 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H36" s="6">
         <v>42333</v>
@@ -3438,7 +3480,7 @@
         <v>4</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>5</v>
@@ -3447,10 +3489,10 @@
         <v>6</v>
       </c>
       <c r="M36" s="2">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O36" s="2">
         <v>13216545978</v>
@@ -3473,16 +3515,16 @@
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H37" s="6">
         <v>42334</v>
@@ -3491,7 +3533,7 @@
         <v>4</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>5</v>
@@ -3500,10 +3542,10 @@
         <v>6</v>
       </c>
       <c r="M37" s="2">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O37" s="2">
         <v>13216545978</v>
@@ -3526,16 +3568,16 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H38" s="6">
         <v>42335</v>
@@ -3544,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>5</v>
@@ -3553,10 +3595,10 @@
         <v>6</v>
       </c>
       <c r="M38" s="2">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O38" s="2">
         <v>13216545978</v>
@@ -3579,16 +3621,16 @@
         <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H39" s="6">
         <v>42336</v>
@@ -3597,7 +3639,7 @@
         <v>4</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>5</v>
@@ -3606,10 +3648,10 @@
         <v>6</v>
       </c>
       <c r="M39" s="2">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O39" s="2">
         <v>13216545978</v>
@@ -3632,16 +3674,16 @@
         <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H40" s="6">
         <v>42337</v>
@@ -3650,7 +3692,7 @@
         <v>4</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>5</v>
@@ -3659,10 +3701,10 @@
         <v>6</v>
       </c>
       <c r="M40" s="2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O40" s="2">
         <v>13216545978</v>
@@ -3685,16 +3727,16 @@
         <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H41" s="6">
         <v>42338</v>
@@ -3703,7 +3745,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>5</v>
@@ -3712,10 +3754,10 @@
         <v>6</v>
       </c>
       <c r="M41" s="2">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O41" s="2">
         <v>13216545978</v>
@@ -3738,16 +3780,16 @@
         <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H42" s="6">
         <v>42339</v>
@@ -3756,7 +3798,7 @@
         <v>4</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>5</v>
@@ -3765,10 +3807,10 @@
         <v>6</v>
       </c>
       <c r="M42" s="2">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O42" s="2">
         <v>13216545978</v>
@@ -3791,16 +3833,16 @@
         <v>7</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H43" s="6">
         <v>42340</v>
@@ -3809,7 +3851,7 @@
         <v>4</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>5</v>
@@ -3818,10 +3860,10 @@
         <v>6</v>
       </c>
       <c r="M43" s="2">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O43" s="2">
         <v>13216545978</v>
@@ -3844,16 +3886,16 @@
         <v>7</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H44" s="6">
         <v>42341</v>
@@ -3862,7 +3904,7 @@
         <v>4</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>5</v>
@@ -3871,10 +3913,10 @@
         <v>6</v>
       </c>
       <c r="M44" s="2">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O44" s="2">
         <v>13216545978</v>
@@ -3897,16 +3939,16 @@
         <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H45" s="6">
         <v>42342</v>
@@ -3915,7 +3957,7 @@
         <v>4</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>5</v>
@@ -3924,10 +3966,10 @@
         <v>6</v>
       </c>
       <c r="M45" s="2">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O45" s="2">
         <v>13216545978</v>
@@ -3950,16 +3992,16 @@
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H46" s="6">
         <v>42343</v>
@@ -3968,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>5</v>
@@ -3977,10 +4019,10 @@
         <v>6</v>
       </c>
       <c r="M46" s="2">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O46" s="2">
         <v>13216545978</v>
@@ -4003,16 +4045,16 @@
         <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H47" s="6">
         <v>42344</v>
@@ -4021,7 +4063,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>5</v>
@@ -4030,10 +4072,10 @@
         <v>6</v>
       </c>
       <c r="M47" s="2">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O47" s="2">
         <v>13216545978</v>
@@ -4056,16 +4098,16 @@
         <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H48" s="6">
         <v>42345</v>
@@ -4074,7 +4116,7 @@
         <v>4</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>5</v>
@@ -4083,10 +4125,10 @@
         <v>6</v>
       </c>
       <c r="M48" s="2">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O48" s="2">
         <v>13216545978</v>
@@ -4109,16 +4151,16 @@
         <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H49" s="6">
         <v>42346</v>
@@ -4127,7 +4169,7 @@
         <v>4</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>5</v>
@@ -4136,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="M49" s="2">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O49" s="2">
         <v>13216545978</v>
@@ -4162,16 +4204,16 @@
         <v>7</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H50" s="6">
         <v>42347</v>
@@ -4180,7 +4222,7 @@
         <v>4</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>5</v>
@@ -4189,10 +4231,10 @@
         <v>6</v>
       </c>
       <c r="M50" s="2">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O50" s="2">
         <v>13216545978</v>
@@ -4215,16 +4257,16 @@
         <v>7</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H51" s="6">
         <v>42348</v>
@@ -4233,7 +4275,7 @@
         <v>4</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>5</v>
@@ -4242,10 +4284,10 @@
         <v>6</v>
       </c>
       <c r="M51" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O51" s="2">
         <v>13216545978</v>
@@ -4268,16 +4310,16 @@
         <v>7</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H52" s="6">
         <v>42349</v>
@@ -4286,7 +4328,7 @@
         <v>4</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>5</v>
@@ -4295,10 +4337,10 @@
         <v>6</v>
       </c>
       <c r="M52" s="2">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O52" s="2">
         <v>13216545978</v>
@@ -4321,16 +4363,16 @@
         <v>7</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H53" s="6">
         <v>42350</v>
@@ -4339,7 +4381,7 @@
         <v>4</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>5</v>
@@ -4348,10 +4390,10 @@
         <v>6</v>
       </c>
       <c r="M53" s="2">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O53" s="2">
         <v>13216545978</v>
@@ -4374,16 +4416,16 @@
         <v>7</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H54" s="6">
         <v>42351</v>
@@ -4392,7 +4434,7 @@
         <v>4</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>5</v>
@@ -4401,10 +4443,10 @@
         <v>6</v>
       </c>
       <c r="M54" s="2">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O54" s="2">
         <v>13216545978</v>
@@ -4427,16 +4469,16 @@
         <v>7</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H55" s="6">
         <v>42352</v>
@@ -4445,7 +4487,7 @@
         <v>4</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>5</v>
@@ -4454,10 +4496,10 @@
         <v>6</v>
       </c>
       <c r="M55" s="2">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O55" s="2">
         <v>13216545978</v>
@@ -4480,16 +4522,16 @@
         <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H56" s="6">
         <v>42353</v>
@@ -4498,7 +4540,7 @@
         <v>4</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>5</v>
@@ -4507,10 +4549,10 @@
         <v>6</v>
       </c>
       <c r="M56" s="2">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O56" s="2">
         <v>13216545978</v>
@@ -4533,16 +4575,16 @@
         <v>7</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H57" s="6">
         <v>42354</v>
@@ -4551,7 +4593,7 @@
         <v>4</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>5</v>
@@ -4560,10 +4602,10 @@
         <v>6</v>
       </c>
       <c r="M57" s="2">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O57" s="2">
         <v>13216545978</v>
@@ -4586,16 +4628,16 @@
         <v>7</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H58" s="6">
         <v>42355</v>
@@ -4604,7 +4646,7 @@
         <v>4</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>5</v>
@@ -4613,10 +4655,10 @@
         <v>6</v>
       </c>
       <c r="M58" s="2">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O58" s="2">
         <v>13216545978</v>
@@ -4639,16 +4681,16 @@
         <v>7</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H59" s="6">
         <v>42356</v>
@@ -4657,7 +4699,7 @@
         <v>4</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>5</v>
@@ -4666,10 +4708,10 @@
         <v>6</v>
       </c>
       <c r="M59" s="2">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O59" s="2">
         <v>13216545978</v>
@@ -4692,16 +4734,16 @@
         <v>7</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="H60" s="6">
         <v>42357</v>
@@ -4710,7 +4752,7 @@
         <v>4</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>5</v>
@@ -4719,10 +4761,10 @@
         <v>6</v>
       </c>
       <c r="M60" s="2">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O60" s="2">
         <v>13216545978</v>
@@ -4745,16 +4787,16 @@
         <v>7</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H61" s="6">
         <v>42358</v>
@@ -4763,7 +4805,7 @@
         <v>4</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>5</v>
@@ -4772,10 +4814,10 @@
         <v>6</v>
       </c>
       <c r="M61" s="2">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O61" s="2">
         <v>13216545978</v>
@@ -4798,16 +4840,16 @@
         <v>7</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H62" s="6">
         <v>42359</v>
@@ -4816,7 +4858,7 @@
         <v>4</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>5</v>
@@ -4825,10 +4867,10 @@
         <v>6</v>
       </c>
       <c r="M62" s="2">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O62" s="2">
         <v>13216545978</v>
@@ -4851,16 +4893,16 @@
         <v>7</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H63" s="6">
         <v>42360</v>
@@ -4869,7 +4911,7 @@
         <v>4</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>5</v>
@@ -4878,10 +4920,10 @@
         <v>6</v>
       </c>
       <c r="M63" s="2">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O63" s="2">
         <v>13216545978</v>
@@ -4904,16 +4946,16 @@
         <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H64" s="6">
         <v>42361</v>
@@ -4922,7 +4964,7 @@
         <v>4</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>5</v>
@@ -4931,10 +4973,10 @@
         <v>6</v>
       </c>
       <c r="M64" s="2">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O64" s="2">
         <v>13216545978</v>
@@ -4957,16 +4999,16 @@
         <v>7</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H65" s="6">
         <v>42362</v>
@@ -4975,7 +5017,7 @@
         <v>4</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>5</v>
@@ -4984,10 +5026,10 @@
         <v>6</v>
       </c>
       <c r="M65" s="2">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O65" s="2">
         <v>13216545978</v>
@@ -5010,16 +5052,16 @@
         <v>7</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H66" s="6">
         <v>42363</v>
@@ -5028,7 +5070,7 @@
         <v>4</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>5</v>
@@ -5037,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="M66" s="2">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O66" s="2">
         <v>13216545978</v>
@@ -5063,16 +5105,16 @@
         <v>7</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H67" s="6">
         <v>42364</v>
@@ -5081,7 +5123,7 @@
         <v>4</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>5</v>
@@ -5090,10 +5132,10 @@
         <v>6</v>
       </c>
       <c r="M67" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O67" s="2">
         <v>13216545978</v>
@@ -5116,16 +5158,16 @@
         <v>7</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H68" s="6">
         <v>42365</v>
@@ -5134,7 +5176,7 @@
         <v>4</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>5</v>
@@ -5143,10 +5185,10 @@
         <v>6</v>
       </c>
       <c r="M68" s="2">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O68" s="2">
         <v>13216545978</v>
@@ -5169,16 +5211,16 @@
         <v>7</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H69" s="6">
         <v>42366</v>
@@ -5187,7 +5229,7 @@
         <v>4</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>5</v>
@@ -5196,10 +5238,10 @@
         <v>6</v>
       </c>
       <c r="M69" s="2">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O69" s="2">
         <v>13216545978</v>
@@ -5222,16 +5264,16 @@
         <v>7</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H70" s="6">
         <v>42367</v>
@@ -5240,7 +5282,7 @@
         <v>4</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>5</v>
@@ -5249,10 +5291,10 @@
         <v>6</v>
       </c>
       <c r="M70" s="2">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O70" s="2">
         <v>13216545978</v>
@@ -5275,16 +5317,16 @@
         <v>7</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H71" s="6">
         <v>42368</v>
@@ -5293,7 +5335,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>5</v>
@@ -5302,10 +5344,10 @@
         <v>6</v>
       </c>
       <c r="M71" s="2">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O71" s="2">
         <v>13216545978</v>
@@ -5328,16 +5370,16 @@
         <v>7</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="H72" s="6">
         <v>42369</v>
@@ -5346,7 +5388,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>5</v>
@@ -5355,10 +5397,10 @@
         <v>6</v>
       </c>
       <c r="M72" s="2">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O72" s="2">
         <v>13216545978</v>
@@ -5381,16 +5423,16 @@
         <v>7</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H73" s="6">
         <v>42370</v>
@@ -5399,7 +5441,7 @@
         <v>4</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>5</v>
@@ -5408,10 +5450,10 @@
         <v>6</v>
       </c>
       <c r="M73" s="2">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O73" s="2">
         <v>13216545978</v>
@@ -5434,16 +5476,16 @@
         <v>7</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H74" s="6">
         <v>42371</v>
@@ -5452,7 +5494,7 @@
         <v>4</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>5</v>
@@ -5461,10 +5503,10 @@
         <v>6</v>
       </c>
       <c r="M74" s="2">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O74" s="2">
         <v>13216545978</v>
@@ -5487,16 +5529,16 @@
         <v>7</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H75" s="6">
         <v>42372</v>
@@ -5505,7 +5547,7 @@
         <v>4</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>5</v>
@@ -5514,10 +5556,10 @@
         <v>6</v>
       </c>
       <c r="M75" s="2">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O75" s="2">
         <v>13216545978</v>
@@ -5540,16 +5582,16 @@
         <v>7</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H76" s="6">
         <v>42373</v>
@@ -5558,7 +5600,7 @@
         <v>4</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>5</v>
@@ -5567,10 +5609,10 @@
         <v>6</v>
       </c>
       <c r="M76" s="2">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O76" s="2">
         <v>13216545978</v>
@@ -5593,16 +5635,16 @@
         <v>7</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H77" s="6">
         <v>42374</v>
@@ -5611,7 +5653,7 @@
         <v>4</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>5</v>
@@ -5620,10 +5662,10 @@
         <v>6</v>
       </c>
       <c r="M77" s="2">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O77" s="2">
         <v>13216545978</v>
@@ -5646,16 +5688,16 @@
         <v>7</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H78" s="6">
         <v>42375</v>
@@ -5664,7 +5706,7 @@
         <v>4</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>5</v>
@@ -5673,10 +5715,10 @@
         <v>6</v>
       </c>
       <c r="M78" s="2">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O78" s="2">
         <v>13216545978</v>
@@ -5699,16 +5741,16 @@
         <v>7</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H79" s="6">
         <v>42376</v>
@@ -5717,7 +5759,7 @@
         <v>4</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>5</v>
@@ -5726,10 +5768,10 @@
         <v>6</v>
       </c>
       <c r="M79" s="2">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O79" s="2">
         <v>13216545978</v>
@@ -5752,16 +5794,16 @@
         <v>7</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H80" s="6">
         <v>42377</v>
@@ -5770,7 +5812,7 @@
         <v>4</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>5</v>
@@ -5779,10 +5821,10 @@
         <v>6</v>
       </c>
       <c r="M80" s="2">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O80" s="2">
         <v>13216545978</v>
@@ -5805,16 +5847,16 @@
         <v>7</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H81" s="6">
         <v>42378</v>
@@ -5823,7 +5865,7 @@
         <v>4</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>5</v>
@@ -5832,10 +5874,10 @@
         <v>6</v>
       </c>
       <c r="M81" s="2">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O81" s="2">
         <v>13216545978</v>
@@ -5858,16 +5900,16 @@
         <v>7</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H82" s="6">
         <v>42379</v>
@@ -5876,7 +5918,7 @@
         <v>4</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>5</v>
@@ -5885,10 +5927,10 @@
         <v>6</v>
       </c>
       <c r="M82" s="2">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O82" s="2">
         <v>13216545978</v>
@@ -5911,16 +5953,16 @@
         <v>7</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H83" s="6">
         <v>42380</v>
@@ -5929,7 +5971,7 @@
         <v>4</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>5</v>
@@ -5938,10 +5980,10 @@
         <v>6</v>
       </c>
       <c r="M83" s="2">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O83" s="2">
         <v>13216545978</v>
@@ -5964,16 +6006,16 @@
         <v>7</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H84" s="6">
         <v>42381</v>
@@ -5982,7 +6024,7 @@
         <v>4</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>5</v>
@@ -5991,10 +6033,10 @@
         <v>6</v>
       </c>
       <c r="M84" s="2">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O84" s="2">
         <v>13216545978</v>
@@ -6017,16 +6059,16 @@
         <v>7</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H85" s="6">
         <v>42382</v>
@@ -6035,7 +6077,7 @@
         <v>4</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>5</v>
@@ -6044,10 +6086,10 @@
         <v>6</v>
       </c>
       <c r="M85" s="2">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O85" s="2">
         <v>13216545978</v>
@@ -6070,16 +6112,16 @@
         <v>7</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H86" s="6">
         <v>42383</v>
@@ -6088,7 +6130,7 @@
         <v>4</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>5</v>
@@ -6097,10 +6139,10 @@
         <v>6</v>
       </c>
       <c r="M86" s="2">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O86" s="2">
         <v>13216545978</v>
@@ -6123,16 +6165,16 @@
         <v>7</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H87" s="6">
         <v>42384</v>
@@ -6141,7 +6183,7 @@
         <v>4</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>5</v>
@@ -6150,10 +6192,10 @@
         <v>6</v>
       </c>
       <c r="M87" s="2">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O87" s="2">
         <v>13216545978</v>
@@ -6176,16 +6218,16 @@
         <v>7</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H88" s="6">
         <v>42385</v>
@@ -6194,7 +6236,7 @@
         <v>4</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>5</v>
@@ -6203,10 +6245,10 @@
         <v>6</v>
       </c>
       <c r="M88" s="2">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O88" s="2">
         <v>13216545978</v>
@@ -6229,16 +6271,16 @@
         <v>7</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H89" s="6">
         <v>42386</v>
@@ -6247,7 +6289,7 @@
         <v>4</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>5</v>
@@ -6256,10 +6298,10 @@
         <v>6</v>
       </c>
       <c r="M89" s="2">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O89" s="2">
         <v>13216545978</v>
@@ -6282,16 +6324,16 @@
         <v>7</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H90" s="6">
         <v>42387</v>
@@ -6300,7 +6342,7 @@
         <v>4</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>5</v>
@@ -6309,10 +6351,10 @@
         <v>6</v>
       </c>
       <c r="M90" s="2">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O90" s="2">
         <v>13216545978</v>
@@ -6335,16 +6377,16 @@
         <v>7</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H91" s="6">
         <v>42388</v>
@@ -6353,7 +6395,7 @@
         <v>4</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>5</v>
@@ -6362,10 +6404,10 @@
         <v>6</v>
       </c>
       <c r="M91" s="2">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O91" s="2">
         <v>13216545978</v>
@@ -6388,16 +6430,16 @@
         <v>7</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H92" s="6">
         <v>42389</v>
@@ -6406,7 +6448,7 @@
         <v>4</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>5</v>
@@ -6415,10 +6457,10 @@
         <v>6</v>
       </c>
       <c r="M92" s="2">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O92" s="2">
         <v>13216545978</v>
@@ -6441,16 +6483,16 @@
         <v>7</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H93" s="6">
         <v>42390</v>
@@ -6459,7 +6501,7 @@
         <v>4</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>5</v>
@@ -6468,10 +6510,10 @@
         <v>6</v>
       </c>
       <c r="M93" s="2">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O93" s="2">
         <v>13216545978</v>
@@ -6494,16 +6536,16 @@
         <v>7</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H94" s="6">
         <v>42391</v>
@@ -6512,7 +6554,7 @@
         <v>4</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>5</v>
@@ -6521,10 +6563,10 @@
         <v>6</v>
       </c>
       <c r="M94" s="2">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O94" s="2">
         <v>13216545978</v>
@@ -6547,16 +6589,16 @@
         <v>7</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H95" s="6">
         <v>42392</v>
@@ -6565,7 +6607,7 @@
         <v>4</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>5</v>
@@ -6574,10 +6616,10 @@
         <v>6</v>
       </c>
       <c r="M95" s="2">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O95" s="2">
         <v>13216545978</v>
@@ -6600,16 +6642,16 @@
         <v>7</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H96" s="6">
         <v>42393</v>
@@ -6618,7 +6660,7 @@
         <v>4</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>5</v>
@@ -6627,10 +6669,10 @@
         <v>6</v>
       </c>
       <c r="M96" s="2">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O96" s="2">
         <v>13216545978</v>
@@ -6653,16 +6695,16 @@
         <v>7</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H97" s="6">
         <v>42394</v>
@@ -6671,7 +6713,7 @@
         <v>4</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>5</v>
@@ -6680,10 +6722,10 @@
         <v>6</v>
       </c>
       <c r="M97" s="2">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O97" s="2">
         <v>13216545978</v>
@@ -6706,16 +6748,16 @@
         <v>7</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H98" s="6">
         <v>42395</v>
@@ -6724,7 +6766,7 @@
         <v>4</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>5</v>
@@ -6733,10 +6775,10 @@
         <v>6</v>
       </c>
       <c r="M98" s="2">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O98" s="2">
         <v>13216545978</v>
@@ -6759,16 +6801,16 @@
         <v>7</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H99" s="6">
         <v>42396</v>
@@ -6777,7 +6819,7 @@
         <v>4</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>5</v>
@@ -6786,10 +6828,10 @@
         <v>6</v>
       </c>
       <c r="M99" s="2">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O99" s="2">
         <v>13216545978</v>
@@ -6812,16 +6854,16 @@
         <v>7</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H100" s="6">
         <v>42397</v>
@@ -6830,7 +6872,7 @@
         <v>4</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>5</v>
@@ -6839,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="M100" s="2">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O100" s="2">
         <v>13216545978</v>
@@ -6865,16 +6907,16 @@
         <v>7</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H101" s="6">
         <v>42398</v>
@@ -6883,7 +6925,7 @@
         <v>4</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>5</v>
@@ -6892,10 +6934,10 @@
         <v>6</v>
       </c>
       <c r="M101" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O101" s="2">
         <v>13216545978</v>
@@ -6918,16 +6960,16 @@
         <v>7</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H102" s="6">
         <v>42399</v>
@@ -6936,7 +6978,7 @@
         <v>4</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>5</v>
@@ -6945,10 +6987,10 @@
         <v>6</v>
       </c>
       <c r="M102" s="2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O102" s="2">
         <v>13216545978</v>
@@ -6971,16 +7013,16 @@
         <v>7</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H103" s="6">
         <v>42400</v>
@@ -6989,7 +7031,7 @@
         <v>4</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>5</v>
@@ -6998,10 +7040,10 @@
         <v>6</v>
       </c>
       <c r="M103" s="2">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O103" s="2">
         <v>13216545978</v>
@@ -7024,16 +7066,16 @@
         <v>7</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H104" s="6">
         <v>42401</v>
@@ -7042,7 +7084,7 @@
         <v>4</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>5</v>
@@ -7051,10 +7093,10 @@
         <v>6</v>
       </c>
       <c r="M104" s="2">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O104" s="2">
         <v>13216545978</v>
@@ -7077,16 +7119,16 @@
         <v>7</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H105" s="6">
         <v>42402</v>
@@ -7095,7 +7137,7 @@
         <v>4</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>5</v>
@@ -7104,10 +7146,10 @@
         <v>6</v>
       </c>
       <c r="M105" s="2">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O105" s="2">
         <v>13216545978</v>
@@ -7130,16 +7172,16 @@
         <v>7</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H106" s="6">
         <v>42403</v>
@@ -7148,7 +7190,7 @@
         <v>4</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>5</v>
@@ -7157,10 +7199,10 @@
         <v>6</v>
       </c>
       <c r="M106" s="2">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O106" s="2">
         <v>13216545978</v>
@@ -7183,16 +7225,16 @@
         <v>7</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H107" s="6">
         <v>42404</v>
@@ -7201,7 +7243,7 @@
         <v>4</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>5</v>
@@ -7210,10 +7252,10 @@
         <v>6</v>
       </c>
       <c r="M107" s="2">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O107" s="2">
         <v>13216545978</v>
@@ -7236,16 +7278,16 @@
         <v>7</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H108" s="6">
         <v>42405</v>
@@ -7254,7 +7296,7 @@
         <v>4</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>5</v>
@@ -7263,10 +7305,10 @@
         <v>6</v>
       </c>
       <c r="M108" s="2">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O108" s="2">
         <v>13216545978</v>
@@ -7289,16 +7331,16 @@
         <v>7</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H109" s="6">
         <v>42406</v>
@@ -7307,7 +7349,7 @@
         <v>4</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>5</v>
@@ -7316,10 +7358,10 @@
         <v>6</v>
       </c>
       <c r="M109" s="2">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O109" s="2">
         <v>13216545978</v>
@@ -7342,16 +7384,16 @@
         <v>7</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H110" s="6">
         <v>42407</v>
@@ -7360,7 +7402,7 @@
         <v>4</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>5</v>
@@ -7369,10 +7411,10 @@
         <v>6</v>
       </c>
       <c r="M110" s="2">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O110" s="2">
         <v>13216545978</v>
@@ -7395,16 +7437,16 @@
         <v>7</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H111" s="6">
         <v>42408</v>
@@ -7413,7 +7455,7 @@
         <v>4</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>5</v>
@@ -7422,10 +7464,10 @@
         <v>6</v>
       </c>
       <c r="M111" s="2">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O111" s="2">
         <v>13216545978</v>
@@ -7448,16 +7490,16 @@
         <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H112" s="6">
         <v>42409</v>
@@ -7466,7 +7508,7 @@
         <v>4</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>5</v>
@@ -7475,10 +7517,10 @@
         <v>6</v>
       </c>
       <c r="M112" s="2">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O112" s="2">
         <v>13216545978</v>
@@ -7501,16 +7543,16 @@
         <v>7</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H113" s="6">
         <v>42410</v>
@@ -7519,7 +7561,7 @@
         <v>4</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>5</v>
@@ -7528,10 +7570,10 @@
         <v>6</v>
       </c>
       <c r="M113" s="2">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O113" s="2">
         <v>13216545978</v>
@@ -7554,16 +7596,16 @@
         <v>7</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H114" s="6">
         <v>42411</v>
@@ -7572,7 +7614,7 @@
         <v>4</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>5</v>
@@ -7581,10 +7623,10 @@
         <v>6</v>
       </c>
       <c r="M114" s="2">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O114" s="2">
         <v>13216545978</v>
@@ -7607,16 +7649,16 @@
         <v>7</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H115" s="6">
         <v>42412</v>
@@ -7625,7 +7667,7 @@
         <v>4</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>5</v>
@@ -7634,10 +7676,10 @@
         <v>6</v>
       </c>
       <c r="M115" s="2">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O115" s="2">
         <v>13216545978</v>
@@ -7660,16 +7702,16 @@
         <v>7</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="H116" s="6">
         <v>42413</v>
@@ -7678,7 +7720,7 @@
         <v>4</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>5</v>
@@ -7687,10 +7729,10 @@
         <v>6</v>
       </c>
       <c r="M116" s="2">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O116" s="2">
         <v>13216545978</v>
@@ -7713,16 +7755,16 @@
         <v>7</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="H117" s="6">
         <v>42414</v>
@@ -7731,7 +7773,7 @@
         <v>4</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>5</v>
@@ -7740,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="M117" s="2">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O117" s="2">
         <v>13216545978</v>
@@ -7766,16 +7808,16 @@
         <v>7</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H118" s="6">
         <v>42415</v>
@@ -7784,7 +7826,7 @@
         <v>4</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>5</v>
@@ -7793,10 +7835,10 @@
         <v>6</v>
       </c>
       <c r="M118" s="2">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O118" s="2">
         <v>13216545978</v>
@@ -7819,16 +7861,16 @@
         <v>7</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H119" s="6">
         <v>42416</v>
@@ -7837,7 +7879,7 @@
         <v>4</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>5</v>
@@ -7846,10 +7888,10 @@
         <v>6</v>
       </c>
       <c r="M119" s="2">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O119" s="2">
         <v>13216545978</v>
@@ -7872,16 +7914,16 @@
         <v>7</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H120" s="6">
         <v>42417</v>
@@ -7890,7 +7932,7 @@
         <v>4</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>5</v>
@@ -7899,10 +7941,10 @@
         <v>6</v>
       </c>
       <c r="M120" s="2">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O120" s="2">
         <v>13216545978</v>
@@ -7925,16 +7967,16 @@
         <v>7</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="H121" s="6">
         <v>42418</v>
@@ -7943,7 +7985,7 @@
         <v>4</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>5</v>
@@ -7952,10 +7994,10 @@
         <v>6</v>
       </c>
       <c r="M121" s="2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O121" s="2">
         <v>13216545978</v>
@@ -7978,16 +8020,16 @@
         <v>7</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H122" s="6">
         <v>42419</v>
@@ -7996,7 +8038,7 @@
         <v>4</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>5</v>
@@ -8005,10 +8047,10 @@
         <v>6</v>
       </c>
       <c r="M122" s="2">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O122" s="2">
         <v>13216545978</v>
@@ -8031,16 +8073,16 @@
         <v>7</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="H123" s="6">
         <v>42420</v>
@@ -8049,7 +8091,7 @@
         <v>4</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>5</v>
@@ -8058,10 +8100,10 @@
         <v>6</v>
       </c>
       <c r="M123" s="2">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O123" s="2">
         <v>13216545978</v>
@@ -8084,16 +8126,16 @@
         <v>7</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H124" s="6">
         <v>42421</v>
@@ -8102,7 +8144,7 @@
         <v>4</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>5</v>
@@ -8111,10 +8153,10 @@
         <v>6</v>
       </c>
       <c r="M124" s="2">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O124" s="2">
         <v>13216545978</v>
@@ -8137,16 +8179,16 @@
         <v>7</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H125" s="6">
         <v>42422</v>
@@ -8155,7 +8197,7 @@
         <v>4</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>5</v>
@@ -8164,10 +8206,10 @@
         <v>6</v>
       </c>
       <c r="M125" s="2">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O125" s="2">
         <v>13216545978</v>
@@ -8190,16 +8232,16 @@
         <v>7</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H126" s="6">
         <v>42423</v>
@@ -8208,7 +8250,7 @@
         <v>4</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>5</v>
@@ -8217,10 +8259,10 @@
         <v>6</v>
       </c>
       <c r="M126" s="2">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O126" s="2">
         <v>13216545978</v>
@@ -8243,16 +8285,16 @@
         <v>7</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H127" s="6">
         <v>42424</v>
@@ -8261,7 +8303,7 @@
         <v>4</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>5</v>
@@ -8270,10 +8312,10 @@
         <v>6</v>
       </c>
       <c r="M127" s="2">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O127" s="2">
         <v>13216545978</v>
@@ -8296,16 +8338,16 @@
         <v>7</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H128" s="6">
         <v>42425</v>
@@ -8314,7 +8356,7 @@
         <v>4</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>5</v>
@@ -8323,10 +8365,10 @@
         <v>6</v>
       </c>
       <c r="M128" s="2">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O128" s="2">
         <v>13216545978</v>
@@ -8349,16 +8391,16 @@
         <v>7</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="H129" s="6">
         <v>42426</v>
@@ -8367,7 +8409,7 @@
         <v>4</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>5</v>
@@ -8376,10 +8418,10 @@
         <v>6</v>
       </c>
       <c r="M129" s="2">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O129" s="2">
         <v>13216545978</v>
@@ -8402,16 +8444,16 @@
         <v>7</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="H130" s="6">
         <v>42427</v>
@@ -8420,7 +8462,7 @@
         <v>4</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>5</v>
@@ -8429,10 +8471,10 @@
         <v>6</v>
       </c>
       <c r="M130" s="2">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O130" s="2">
         <v>13216545978</v>
@@ -8455,16 +8497,16 @@
         <v>7</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H131" s="6">
         <v>42428</v>
@@ -8473,7 +8515,7 @@
         <v>4</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>5</v>
@@ -8482,10 +8524,10 @@
         <v>6</v>
       </c>
       <c r="M131" s="2">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O131" s="2">
         <v>13216545978</v>
@@ -8508,16 +8550,16 @@
         <v>7</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H132" s="6">
         <v>42429</v>
@@ -8526,7 +8568,7 @@
         <v>4</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>5</v>
@@ -8535,10 +8577,10 @@
         <v>6</v>
       </c>
       <c r="M132" s="2">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O132" s="2">
         <v>13216545978</v>
@@ -8561,16 +8603,16 @@
         <v>7</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H133" s="6">
         <v>42430</v>
@@ -8579,7 +8621,7 @@
         <v>4</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>5</v>
@@ -8588,10 +8630,10 @@
         <v>6</v>
       </c>
       <c r="M133" s="2">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O133" s="2">
         <v>13216545978</v>
@@ -8614,16 +8656,16 @@
         <v>7</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H134" s="6">
         <v>42431</v>
@@ -8632,7 +8674,7 @@
         <v>4</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>5</v>
@@ -8641,10 +8683,10 @@
         <v>6</v>
       </c>
       <c r="M134" s="2">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O134" s="2">
         <v>13216545978</v>
@@ -8667,16 +8709,16 @@
         <v>7</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="H135" s="6">
         <v>42432</v>
@@ -8685,7 +8727,7 @@
         <v>4</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>5</v>
@@ -8694,10 +8736,10 @@
         <v>6</v>
       </c>
       <c r="M135" s="2">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O135" s="2">
         <v>13216545978</v>
@@ -8720,16 +8762,16 @@
         <v>7</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="H136" s="6">
         <v>42433</v>
@@ -8738,7 +8780,7 @@
         <v>4</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>5</v>
@@ -8747,10 +8789,10 @@
         <v>6</v>
       </c>
       <c r="M136" s="2">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O136" s="2">
         <v>13216545978</v>
@@ -8773,16 +8815,16 @@
         <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="H137" s="6">
         <v>42434</v>
@@ -8791,7 +8833,7 @@
         <v>4</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K137" s="2" t="s">
         <v>5</v>
@@ -8800,10 +8842,10 @@
         <v>6</v>
       </c>
       <c r="M137" s="2">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O137" s="2">
         <v>13216545978</v>
@@ -8826,16 +8868,16 @@
         <v>7</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="H138" s="6">
         <v>42435</v>
@@ -8844,7 +8886,7 @@
         <v>4</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>5</v>
@@ -8853,10 +8895,10 @@
         <v>6</v>
       </c>
       <c r="M138" s="2">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O138" s="2">
         <v>13216545978</v>
@@ -8879,16 +8921,16 @@
         <v>7</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H139" s="6">
         <v>42436</v>
@@ -8897,7 +8939,7 @@
         <v>4</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>5</v>
@@ -8906,10 +8948,10 @@
         <v>6</v>
       </c>
       <c r="M139" s="2">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O139" s="2">
         <v>13216545978</v>
@@ -8932,16 +8974,16 @@
         <v>7</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="H140" s="6">
         <v>42437</v>
@@ -8950,7 +8992,7 @@
         <v>4</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>5</v>
@@ -8959,10 +9001,10 @@
         <v>6</v>
       </c>
       <c r="M140" s="2">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O140" s="2">
         <v>13216545978</v>
@@ -8985,16 +9027,16 @@
         <v>7</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H141" s="6">
         <v>42438</v>
@@ -9003,7 +9045,7 @@
         <v>4</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K141" s="2" t="s">
         <v>5</v>
@@ -9012,10 +9054,10 @@
         <v>6</v>
       </c>
       <c r="M141" s="2">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O141" s="2">
         <v>13216545978</v>
@@ -9038,16 +9080,16 @@
         <v>7</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="H142" s="6">
         <v>42439</v>
@@ -9056,7 +9098,7 @@
         <v>4</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>5</v>
@@ -9065,10 +9107,10 @@
         <v>6</v>
       </c>
       <c r="M142" s="2">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O142" s="2">
         <v>13216545978</v>
@@ -9091,16 +9133,16 @@
         <v>7</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H143" s="6">
         <v>42440</v>
@@ -9109,7 +9151,7 @@
         <v>4</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K143" s="2" t="s">
         <v>5</v>
@@ -9118,10 +9160,10 @@
         <v>6</v>
       </c>
       <c r="M143" s="2">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O143" s="2">
         <v>13216545978</v>
@@ -9144,16 +9186,16 @@
         <v>7</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H144" s="6">
         <v>42441</v>
@@ -9162,7 +9204,7 @@
         <v>4</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>5</v>
@@ -9171,10 +9213,10 @@
         <v>6</v>
       </c>
       <c r="M144" s="2">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O144" s="2">
         <v>13216545978</v>
@@ -9197,16 +9239,16 @@
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H145" s="6">
         <v>42442</v>
@@ -9215,7 +9257,7 @@
         <v>4</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>5</v>
@@ -9224,10 +9266,10 @@
         <v>6</v>
       </c>
       <c r="M145" s="2">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O145" s="2">
         <v>13216545978</v>
@@ -9250,16 +9292,16 @@
         <v>7</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H146" s="6">
         <v>42443</v>
@@ -9268,7 +9310,7 @@
         <v>4</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>5</v>
@@ -9277,10 +9319,10 @@
         <v>6</v>
       </c>
       <c r="M146" s="2">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O146" s="2">
         <v>13216545978</v>
@@ -9303,16 +9345,16 @@
         <v>7</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="H147" s="6">
         <v>42444</v>
@@ -9321,7 +9363,7 @@
         <v>4</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>5</v>
@@ -9330,10 +9372,10 @@
         <v>6</v>
       </c>
       <c r="M147" s="2">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O147" s="2">
         <v>13216545978</v>
@@ -9356,16 +9398,16 @@
         <v>7</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="H148" s="6">
         <v>42445</v>
@@ -9374,7 +9416,7 @@
         <v>4</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>5</v>
@@ -9383,10 +9425,10 @@
         <v>6</v>
       </c>
       <c r="M148" s="2">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O148" s="2">
         <v>13216545978</v>
@@ -9409,16 +9451,16 @@
         <v>7</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H149" s="6">
         <v>42446</v>
@@ -9427,7 +9469,7 @@
         <v>4</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>5</v>
@@ -9436,10 +9478,10 @@
         <v>6</v>
       </c>
       <c r="M149" s="2">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O149" s="2">
         <v>13216545978</v>
@@ -9462,16 +9504,16 @@
         <v>7</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="H150" s="6">
         <v>42447</v>
@@ -9480,7 +9522,7 @@
         <v>4</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>5</v>
@@ -9489,10 +9531,10 @@
         <v>6</v>
       </c>
       <c r="M150" s="2">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O150" s="2">
         <v>13216545978</v>
@@ -9515,16 +9557,16 @@
         <v>7</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H151" s="6">
         <v>42448</v>
@@ -9533,7 +9575,7 @@
         <v>4</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>5</v>
@@ -9542,10 +9584,10 @@
         <v>6</v>
       </c>
       <c r="M151" s="2">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O151" s="2">
         <v>13216545978</v>
@@ -9568,16 +9610,16 @@
         <v>7</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="H152" s="6">
         <v>42449</v>
@@ -9586,7 +9628,7 @@
         <v>4</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>5</v>
@@ -9595,10 +9637,10 @@
         <v>6</v>
       </c>
       <c r="M152" s="2">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O152" s="2">
         <v>13216545978</v>
@@ -9621,16 +9663,16 @@
         <v>7</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H153" s="6">
         <v>42450</v>
@@ -9639,7 +9681,7 @@
         <v>4</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>5</v>
@@ -9648,10 +9690,10 @@
         <v>6</v>
       </c>
       <c r="M153" s="2">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O153" s="2">
         <v>13216545978</v>
@@ -9674,16 +9716,16 @@
         <v>7</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H154" s="6">
         <v>42451</v>
@@ -9692,7 +9734,7 @@
         <v>4</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>5</v>
@@ -9701,10 +9743,10 @@
         <v>6</v>
       </c>
       <c r="M154" s="2">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O154" s="2">
         <v>13216545978</v>
@@ -9727,16 +9769,16 @@
         <v>7</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H155" s="6">
         <v>42452</v>
@@ -9745,7 +9787,7 @@
         <v>4</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>5</v>
@@ -9754,10 +9796,10 @@
         <v>6</v>
       </c>
       <c r="M155" s="2">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O155" s="2">
         <v>13216545978</v>
@@ -9780,16 +9822,16 @@
         <v>7</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="H156" s="6">
         <v>42453</v>
@@ -9798,7 +9840,7 @@
         <v>4</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>5</v>
@@ -9807,10 +9849,10 @@
         <v>6</v>
       </c>
       <c r="M156" s="2">
-        <v>155</v>
+        <v>1</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O156" s="2">
         <v>13216545978</v>
@@ -9833,16 +9875,16 @@
         <v>7</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H157" s="6">
         <v>42454</v>
@@ -9851,7 +9893,7 @@
         <v>4</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>5</v>
@@ -9860,10 +9902,10 @@
         <v>6</v>
       </c>
       <c r="M157" s="2">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O157" s="2">
         <v>13216545978</v>
@@ -9886,16 +9928,16 @@
         <v>7</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="H158" s="6">
         <v>42455</v>
@@ -9904,7 +9946,7 @@
         <v>4</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>5</v>
@@ -9913,10 +9955,10 @@
         <v>6</v>
       </c>
       <c r="M158" s="2">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O158" s="2">
         <v>13216545978</v>
@@ -9939,16 +9981,16 @@
         <v>7</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H159" s="6">
         <v>42456</v>
@@ -9957,7 +9999,7 @@
         <v>4</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>5</v>
@@ -9966,10 +10008,10 @@
         <v>6</v>
       </c>
       <c r="M159" s="2">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O159" s="2">
         <v>13216545978</v>
@@ -9992,16 +10034,16 @@
         <v>7</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="H160" s="6">
         <v>42457</v>
@@ -10010,7 +10052,7 @@
         <v>4</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K160" s="2" t="s">
         <v>5</v>
@@ -10019,10 +10061,10 @@
         <v>6</v>
       </c>
       <c r="M160" s="2">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O160" s="2">
         <v>13216545978</v>
@@ -10045,16 +10087,16 @@
         <v>7</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H161" s="6">
         <v>42458</v>
@@ -10063,7 +10105,7 @@
         <v>4</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>5</v>
@@ -10072,10 +10114,10 @@
         <v>6</v>
       </c>
       <c r="M161" s="2">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O161" s="2">
         <v>13216545978</v>
@@ -10098,16 +10140,16 @@
         <v>7</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H162" s="6">
         <v>42459</v>
@@ -10116,7 +10158,7 @@
         <v>4</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>5</v>
@@ -10125,10 +10167,10 @@
         <v>6</v>
       </c>
       <c r="M162" s="2">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O162" s="2">
         <v>13216545978</v>
@@ -10151,16 +10193,16 @@
         <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H163" s="6">
         <v>42460</v>
@@ -10169,7 +10211,7 @@
         <v>4</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K163" s="2" t="s">
         <v>5</v>
@@ -10178,10 +10220,10 @@
         <v>6</v>
       </c>
       <c r="M163" s="2">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O163" s="2">
         <v>13216545978</v>
@@ -10204,16 +10246,16 @@
         <v>7</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H164" s="6">
         <v>42461</v>
@@ -10222,7 +10264,7 @@
         <v>4</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K164" s="2" t="s">
         <v>5</v>
@@ -10231,10 +10273,10 @@
         <v>6</v>
       </c>
       <c r="M164" s="2">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O164" s="2">
         <v>13216545978</v>
@@ -10257,16 +10299,16 @@
         <v>7</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H165" s="6">
         <v>42462</v>
@@ -10275,7 +10317,7 @@
         <v>4</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K165" s="2" t="s">
         <v>5</v>
@@ -10284,10 +10326,10 @@
         <v>6</v>
       </c>
       <c r="M165" s="2">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O165" s="2">
         <v>13216545978</v>
@@ -10310,16 +10352,16 @@
         <v>7</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H166" s="6">
         <v>42463</v>
@@ -10328,7 +10370,7 @@
         <v>4</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>5</v>
@@ -10337,10 +10379,10 @@
         <v>6</v>
       </c>
       <c r="M166" s="2">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O166" s="2">
         <v>13216545978</v>
@@ -10363,16 +10405,16 @@
         <v>7</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H167" s="6">
         <v>42464</v>
@@ -10381,7 +10423,7 @@
         <v>4</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>5</v>
@@ -10390,10 +10432,10 @@
         <v>6</v>
       </c>
       <c r="M167" s="2">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O167" s="2">
         <v>13216545978</v>
@@ -10416,16 +10458,16 @@
         <v>7</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="H168" s="6">
         <v>42465</v>
@@ -10434,7 +10476,7 @@
         <v>4</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>5</v>
@@ -10443,10 +10485,10 @@
         <v>6</v>
       </c>
       <c r="M168" s="2">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O168" s="2">
         <v>13216545978</v>
@@ -10469,16 +10511,16 @@
         <v>7</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H169" s="6">
         <v>42466</v>
@@ -10487,7 +10529,7 @@
         <v>4</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>5</v>
@@ -10496,10 +10538,10 @@
         <v>6</v>
       </c>
       <c r="M169" s="2">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O169" s="2">
         <v>13216545978</v>
@@ -10522,16 +10564,16 @@
         <v>7</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="H170" s="6">
         <v>42467</v>
@@ -10540,7 +10582,7 @@
         <v>4</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>5</v>
@@ -10549,10 +10591,10 @@
         <v>6</v>
       </c>
       <c r="M170" s="2">
-        <v>169</v>
+        <v>1</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O170" s="2">
         <v>13216545978</v>
@@ -10575,16 +10617,16 @@
         <v>7</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="H171" s="6">
         <v>42468</v>
@@ -10593,7 +10635,7 @@
         <v>4</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>5</v>
@@ -10602,10 +10644,10 @@
         <v>6</v>
       </c>
       <c r="M171" s="2">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O171" s="2">
         <v>13216545978</v>
@@ -10628,16 +10670,16 @@
         <v>7</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="H172" s="6">
         <v>42469</v>
@@ -10646,7 +10688,7 @@
         <v>4</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>5</v>
@@ -10655,10 +10697,10 @@
         <v>6</v>
       </c>
       <c r="M172" s="2">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O172" s="2">
         <v>13216545978</v>
@@ -10681,16 +10723,16 @@
         <v>7</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="H173" s="6">
         <v>42470</v>
@@ -10699,7 +10741,7 @@
         <v>4</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>5</v>
@@ -10708,10 +10750,10 @@
         <v>6</v>
       </c>
       <c r="M173" s="2">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O173" s="2">
         <v>13216545978</v>
@@ -10734,16 +10776,16 @@
         <v>7</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H174" s="6">
         <v>42471</v>
@@ -10752,7 +10794,7 @@
         <v>4</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K174" s="2" t="s">
         <v>5</v>
@@ -10761,10 +10803,10 @@
         <v>6</v>
       </c>
       <c r="M174" s="2">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O174" s="2">
         <v>13216545978</v>
@@ -10787,16 +10829,16 @@
         <v>7</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="H175" s="6">
         <v>42472</v>
@@ -10805,7 +10847,7 @@
         <v>4</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>5</v>
@@ -10814,10 +10856,10 @@
         <v>6</v>
       </c>
       <c r="M175" s="2">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O175" s="2">
         <v>13216545978</v>
@@ -10840,16 +10882,16 @@
         <v>7</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="H176" s="6">
         <v>42473</v>
@@ -10858,7 +10900,7 @@
         <v>4</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>5</v>
@@ -10867,10 +10909,10 @@
         <v>6</v>
       </c>
       <c r="M176" s="2">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O176" s="2">
         <v>13216545978</v>
@@ -10893,16 +10935,16 @@
         <v>7</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="H177" s="6">
         <v>42474</v>
@@ -10911,7 +10953,7 @@
         <v>4</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K177" s="2" t="s">
         <v>5</v>
@@ -10920,10 +10962,10 @@
         <v>6</v>
       </c>
       <c r="M177" s="2">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O177" s="2">
         <v>13216545978</v>
@@ -10946,16 +10988,16 @@
         <v>7</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H178" s="6">
         <v>42475</v>
@@ -10964,7 +11006,7 @@
         <v>4</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K178" s="2" t="s">
         <v>5</v>
@@ -10973,10 +11015,10 @@
         <v>6</v>
       </c>
       <c r="M178" s="2">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O178" s="2">
         <v>13216545978</v>
@@ -10999,16 +11041,16 @@
         <v>7</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="H179" s="6">
         <v>42476</v>
@@ -11017,7 +11059,7 @@
         <v>4</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K179" s="2" t="s">
         <v>5</v>
@@ -11026,10 +11068,10 @@
         <v>6</v>
       </c>
       <c r="M179" s="2">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O179" s="2">
         <v>13216545978</v>
@@ -11052,16 +11094,16 @@
         <v>7</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H180" s="6">
         <v>42477</v>
@@ -11070,7 +11112,7 @@
         <v>4</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K180" s="2" t="s">
         <v>5</v>
@@ -11082,7 +11124,7 @@
         <v>179</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O180" s="2">
         <v>13216545978</v>
@@ -11105,16 +11147,16 @@
         <v>7</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="H181" s="6">
         <v>42478</v>
@@ -11123,7 +11165,7 @@
         <v>4</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K181" s="2" t="s">
         <v>5</v>
@@ -11135,7 +11177,7 @@
         <v>180</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O181" s="2">
         <v>13216545978</v>
